--- a/src/Formulário Live.xlsx
+++ b/src/Formulário Live.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\botwpp\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DAC9AE-F5DD-4F48-B077-9B05DCF02B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="284">
   <si>
     <t>number</t>
   </si>
@@ -20,36 +29,6 @@
   </si>
   <si>
     <t>e-mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luan silva </t>
-  </si>
-  <si>
-    <t>luansktss@gmail.com</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
-    <t>germanomatheus@icloud.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriano Cunha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adrianovcunha@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Alexandrino </t>
-  </si>
-  <si>
-    <t>ricardoalexandrino79@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edna </t>
-  </si>
-  <si>
-    <t>epolinaro@hotmail.com</t>
   </si>
   <si>
     <t>WENDERSON DIONISIO DA SILVA</t>
@@ -898,18 +877,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -920,43 +900,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1146,29 +1129,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.75"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
-    <col customWidth="1" min="3" max="3" width="39.5"/>
-    <col customWidth="1" min="4" max="11" width="18.88"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,9 +1167,9 @@
       <c r="D1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1.1977552256E10</v>
+        <v>31997853388</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1193,9 +1179,9 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>3.1993201203E10</v>
+        <v>11912284438</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1205,9 +1191,9 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>9.2981120453E10</v>
+        <v>55984740244</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1217,9 +1203,9 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1.1977227593E10</v>
+        <v>16997618821</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1229,9 +1215,9 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>1.1965831272E10</v>
+        <v>11971668049</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1241,9 +1227,9 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>3.1997853388E10</v>
+        <v>11966288512</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1253,9 +1239,9 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>1.1912284438E10</v>
+        <v>11989656745</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1265,9 +1251,9 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>5.5984740244E10</v>
+        <v>12988981332</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1277,9 +1263,9 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>1.6997618821E10</v>
+        <v>11982501819</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1289,9 +1275,9 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1.1971668049E10</v>
+        <v>61995306721</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -1301,9 +1287,9 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>1.1966288512E10</v>
+        <v>32987078427</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -1313,9 +1299,9 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>1.1989656745E10</v>
+        <v>2196707557</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1325,9 +1311,9 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>1.2988981332E10</v>
+        <v>11973469279</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -1337,9 +1323,9 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>1.1982501819E10</v>
+        <v>11975922324</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1349,9 +1335,9 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>6.1995306721E10</v>
+        <v>11983306645</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -1361,9 +1347,9 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>3.2987078427E10</v>
+        <v>51998613462</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
@@ -1373,9 +1359,9 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2.196707557E9</v>
+        <v>11989549304</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -1385,9 +1371,9 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1.1973469279E10</v>
+        <v>11983753930</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>37</v>
@@ -1397,9 +1383,9 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1.1975922324E10</v>
+        <v>11948017835</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -1409,9 +1395,9 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1.1983306645E10</v>
+        <v>11983486009</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -1421,9 +1407,9 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>5.1998613462E10</v>
+        <v>14988065031</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
@@ -1433,9 +1419,9 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1.1989549304E10</v>
+        <v>19996948244</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
@@ -1445,9 +1431,9 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1.198375393E10</v>
+        <v>19994978546</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -1457,9 +1443,9 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1.1948017835E10</v>
+        <v>11917764904</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>49</v>
@@ -1469,9 +1455,9 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1.1983486009E10</v>
+        <v>24992059676</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
@@ -1481,81 +1467,81 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1.4988065031E10</v>
+        <v>21976596395</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>11944778457</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>1.9996948244E10</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>44997035340</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>1.9994978546E10</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>11947576609</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>1.1917764904E10</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>18996655245</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>2.4992059676E10</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>12991140943</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>2.1976596395E10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>1.1944778457E10</v>
+        <v>11980985205</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>64</v>
@@ -1565,81 +1551,81 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>4.499703534E10</v>
+        <v>11973469279</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>31987956466</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>1.1947576609E10</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>61982123153</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3">
-        <v>1.8996655245E10</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>11979688691</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>1.2991140943E10</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>31998262914</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3">
-        <v>1.1980985205E10</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>32991632501</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>1.1973469279E10</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>3.1987956466E10</v>
+        <v>14988408298</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
@@ -1649,9 +1635,9 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>6.1982123153E10</v>
+        <v>11997548533</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>78</v>
@@ -1661,9 +1647,9 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1.1979688691E10</v>
+        <v>12991891547</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>80</v>
@@ -1673,9 +1659,9 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>3.1998262914E10</v>
+        <v>21965395828</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>82</v>
@@ -1685,9 +1671,9 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>3.2991632501E10</v>
+        <v>35998622499</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>84</v>
@@ -1697,9 +1683,9 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1.4988408298E10</v>
+        <v>89994255200</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>86</v>
@@ -1709,9 +1695,9 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1.1997548533E10</v>
+        <v>32984076261</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -1721,9 +1707,9 @@
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1.2991891547E10</v>
+        <v>11986389297</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -1733,9 +1719,9 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>2.1965395828E10</v>
+        <v>21964754204</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -1745,9 +1731,9 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>3.5998622499E10</v>
+        <v>19993391120</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -1757,9 +1743,9 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>8.99942552E10</v>
+        <v>79998874086</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -1769,9 +1755,9 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>3.2984076261E10</v>
+        <v>610432937025</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>98</v>
@@ -1781,9 +1767,9 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1.1986389297E10</v>
+        <v>16992448606</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>100</v>
@@ -1793,9 +1779,9 @@
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>2.1964754204E10</v>
+        <v>11940824838</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>102</v>
@@ -1805,9 +1791,9 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1.999339112E10</v>
+        <v>19993967025</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>104</v>
@@ -1817,9 +1803,9 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>7.9998874086E10</v>
+        <v>11939439240</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>106</v>
@@ -1829,81 +1815,81 @@
       </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>6.10432937025E11</v>
+        <v>61995306721</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>38999074936</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3">
-        <v>1.6992448606E10</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>11977078533</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3">
-        <v>1.1940824838E10</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>71982127870</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>1.9993967025E10</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>42999442798</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>1.193943924E10</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>11959678015</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3">
-        <v>6.1995306721E10</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>3.8999074936E10</v>
+        <v>12991590948</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>119</v>
@@ -1913,9 +1899,9 @@
       </c>
       <c r="G62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1.1977078533E10</v>
+        <v>11975421292</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>121</v>
@@ -1925,9 +1911,9 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>7.198212787E10</v>
+        <v>19996525545</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>123</v>
@@ -1937,9 +1923,9 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>4.2999442798E10</v>
+        <v>11994042501</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>125</v>
@@ -1949,9 +1935,9 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1.1959678015E10</v>
+        <v>12981906017</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>127</v>
@@ -1961,9 +1947,9 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1.2991590948E10</v>
+        <v>21980951694</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>129</v>
@@ -1973,9 +1959,9 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1.1975421292E10</v>
+        <v>11999430538</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>131</v>
@@ -1985,9 +1971,9 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1.9996525545E10</v>
+        <v>11940211393</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>133</v>
@@ -1997,9 +1983,9 @@
       </c>
       <c r="G69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1.1994042501E10</v>
+        <v>11993368797</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>135</v>
@@ -2009,9 +1995,9 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1.2981906017E10</v>
+        <v>11992948334</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>137</v>
@@ -2021,9 +2007,9 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>2.1980951694E10</v>
+        <v>21969948023</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>139</v>
@@ -2033,9 +2019,9 @@
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1.1999430538E10</v>
+        <v>11994042501</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>141</v>
@@ -2045,69 +2031,69 @@
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1.1940211393E10</v>
+        <v>11994042501</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>19971722855</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="3">
-        <v>1.1993368797E10</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>11969389806</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="3">
-        <v>1.1992948334E10</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>11992320959</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3">
-        <v>2.1969948023E10</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>11912284438</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3">
-        <v>1.1994042501E10</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1.1994042501E10</v>
+        <v>14998830342</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>151</v>
@@ -2117,9 +2103,9 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1.9971722855E10</v>
+        <v>77997028777</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>153</v>
@@ -2129,9 +2115,9 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1.1969389806E10</v>
+        <v>19984025628</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>155</v>
@@ -2141,9 +2127,9 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1.1992320959E10</v>
+        <v>19982666139</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>157</v>
@@ -2153,9 +2139,9 @@
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1.1912284438E10</v>
+        <v>11951385471</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>159</v>
@@ -2165,9 +2151,9 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1.4998830342E10</v>
+        <v>22981095279</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>161</v>
@@ -2177,9 +2163,9 @@
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>7.7997028777E10</v>
+        <v>11985065301</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>163</v>
@@ -2189,117 +2175,117 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1.9984025628E10</v>
+        <v>11917764904</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11976871753</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3">
-        <v>1.9982666139E10</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11984522966</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3">
-        <v>1.1951385471E10</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11948017835</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>22998192747</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3">
-        <v>2.2981095279E10</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>63992090557</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3">
-        <v>1.1985065301E10</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>11981615460</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3">
-        <v>1.1917764904E10</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3">
-        <v>1.1976871753E10</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>21993644687</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3">
-        <v>1.1984522966E10</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44997035340</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3">
-        <v>1.1948017835E10</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>2.2998192747E10</v>
+        <v>81997460020</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>180</v>
@@ -2309,9 +2295,9 @@
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>6.3992090557E10</v>
+        <v>11972738381</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>182</v>
@@ -2321,9 +2307,9 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1.198161546E10</v>
+        <v>71988463316</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>184</v>
@@ -2333,9 +2319,9 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>2.1993644687E10</v>
+        <v>34996454750</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>186</v>
@@ -2345,273 +2331,273 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>4.499703534E10</v>
+        <v>62994567330</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>32991632501</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3">
-        <v>8.199746002E10</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>11982977577</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3">
-        <v>1.1972738381E10</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>41996957989</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="3">
-        <v>7.1988463316E10</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>14997832300</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="3">
-        <v>3.499645475E10</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>16991462656</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3">
-        <v>6.299456733E10</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>11972181743</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3">
-        <v>3.2991632501E10</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="G105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1.1982977577E10</v>
+        <v>11972181743</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>11982901911</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="3">
-        <v>4.1996957989E10</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>11912117511</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="3">
-        <v>1.49978323E10</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>51998613452</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3">
-        <v>1.6991462656E10</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>11994898200</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3">
-        <v>1.1972181743E10</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>11950772934</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3">
-        <v>1.1972181743E10</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>209</v>
       </c>
       <c r="G111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1.1982901911E10</v>
+        <v>11973674827</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>31998289485</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3">
-        <v>1.1912117511E10</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>11941062962</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3">
-        <v>5.1998613452E10</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1.19948982E10</v>
+        <v>11994042501</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>24993290401</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="3">
-        <v>1.1950772934E10</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>11984963658</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3">
-        <v>1.1973674827E10</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>21984780512</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="3">
-        <v>3.1998289485E10</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>31998184171</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="3">
-        <v>1.1941062962E10</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>43984460650</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="3">
-        <v>1.1994042501E10</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>2.4993290401E10</v>
+        <v>24988560504</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>226</v>
@@ -2621,9 +2607,9 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1.1984963658E10</v>
+        <v>82996350145</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>228</v>
@@ -2633,213 +2619,213 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>2.1984780512E10</v>
+        <v>21969958023</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>22992011681</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="3">
-        <v>3.1998184171E10</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>38999074936</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="3">
-        <v>4.398446065E10</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>11969389806</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>21976596395</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="3">
-        <v>2.4988560504E10</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>27996174473</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="3">
-        <v>8.2996350145E10</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>11965145997</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="3">
-        <v>2.1969958023E10</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>13974127779</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="3">
-        <v>2.2992011681E10</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>19991197735</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="3">
-        <v>3.8999074936E10</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="3">
-        <v>1.1969389806E10</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>2.1976596395E10</v>
+        <v>19996525545</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>62992892386</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="3">
-        <v>2.7996174473E10</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>11969895015</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="3">
-        <v>1.1965145997E10</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>86995902445</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="3">
-        <v>1.3974127779E10</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>62994808788</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="3">
-        <v>1.9991197735E10</v>
-      </c>
-      <c r="B136" s="3" t="s">
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>14998600399</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="3">
-        <v>1.9996525545E10</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>12997056432</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="3">
-        <v>6.2992892386E10</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>21998024687</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="3">
-        <v>1.1969895015E10</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>257</v>
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>8.6995902445E10</v>
+        <v>16992035198</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>258</v>
@@ -2849,9 +2835,9 @@
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>6.2994808788E10</v>
+        <v>11948840632</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>260</v>
@@ -2861,9 +2847,9 @@
       </c>
       <c r="G141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1.4998600399E10</v>
+        <v>12991961956</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>262</v>
@@ -2873,223 +2859,163 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1.2997056432E10</v>
+        <v>11973469279</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>610406438886</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="3">
-        <v>2.1998024687E10</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>38999074936</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="3">
-        <v>1.6992035198E10</v>
-      </c>
-      <c r="B145" s="3" t="s">
+      <c r="C145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>3187956466</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>83999403845</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="3">
-        <v>1.1948840632E10</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>11999688851</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="3">
-        <v>1.2991961956E10</v>
-      </c>
-      <c r="B147" s="3" t="s">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>21964118834</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="3">
-        <v>1.1973469279E10</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>15997506221</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="3">
-        <v>6.10406438886E11</v>
-      </c>
-      <c r="B149" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>11983306645</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="3">
-        <v>3.8999074936E10</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="C151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>16992448606</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="3">
-        <v>3.187956466E9</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="3">
-        <v>8.3999403845E10</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="C152" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>48998419394</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="3">
-        <v>1.1999688851E10</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>11981895291</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="3">
-        <v>2.1964118834E10</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>62994808788</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="3">
-        <v>1.5997506221E10</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G155" s="4"/>
     </row>
-    <row r="156">
-      <c r="A156" s="3">
-        <v>1.1983306645E10</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="3">
-        <v>1.6992448606E10</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="3">
-        <v>4.8998419394E10</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="3">
-        <v>1.1981895291E10</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="3">
-        <v>6.2994808788E10</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G160" s="4"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>